--- a/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
@@ -507,7 +507,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.03.31 16:27</t>
+    <t>2022.04.25 16:41</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -663,131 +663,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="32.2265625" customWidth="true"/>
-    <col min="2" max="2" width="55.6640625" customWidth="true"/>
-    <col min="3" max="3" width="16.40625" customWidth="true"/>
-    <col min="4" max="4" width="16.40625" customWidth="true"/>
-    <col min="5" max="5" width="16.40625" customWidth="true"/>
-    <col min="6" max="6" width="16.40625" customWidth="true"/>
-    <col min="7" max="7" width="16.40625" customWidth="true"/>
-    <col min="8" max="8" width="16.40625" customWidth="true"/>
-    <col min="9" max="9" width="16.40625" customWidth="true"/>
-    <col min="10" max="10" width="16.40625" customWidth="true"/>
-    <col min="11" max="11" width="16.40625" customWidth="true"/>
-    <col min="12" max="12" width="16.40625" customWidth="true"/>
-    <col min="13" max="13" width="16.40625" customWidth="true"/>
-    <col min="14" max="14" width="16.40625" customWidth="true"/>
-    <col min="15" max="15" width="16.40625" customWidth="true"/>
-    <col min="16" max="16" width="16.40625" customWidth="true"/>
-    <col min="17" max="17" width="16.40625" customWidth="true"/>
-    <col min="18" max="18" width="16.40625" customWidth="true"/>
-    <col min="19" max="19" width="16.40625" customWidth="true"/>
-    <col min="20" max="20" width="16.40625" customWidth="true"/>
-    <col min="21" max="21" width="16.40625" customWidth="true"/>
-    <col min="22" max="22" width="16.40625" customWidth="true"/>
-    <col min="23" max="23" width="16.40625" customWidth="true"/>
-    <col min="24" max="24" width="16.40625" customWidth="true"/>
-    <col min="25" max="25" width="16.40625" customWidth="true"/>
-    <col min="26" max="26" width="16.40625" customWidth="true"/>
-    <col min="27" max="27" width="16.40625" customWidth="true"/>
-    <col min="28" max="28" width="16.40625" customWidth="true"/>
-    <col min="29" max="29" width="16.40625" customWidth="true"/>
-    <col min="30" max="30" width="16.40625" customWidth="true"/>
-    <col min="31" max="31" width="16.40625" customWidth="true"/>
-    <col min="32" max="32" width="16.40625" customWidth="true"/>
-    <col min="33" max="33" width="16.40625" customWidth="true"/>
-    <col min="34" max="34" width="16.40625" customWidth="true"/>
-    <col min="35" max="35" width="16.40625" customWidth="true"/>
-    <col min="36" max="36" width="16.40625" customWidth="true"/>
-    <col min="37" max="37" width="16.40625" customWidth="true"/>
-    <col min="38" max="38" width="16.40625" customWidth="true"/>
-    <col min="39" max="39" width="16.40625" customWidth="true"/>
-    <col min="40" max="40" width="16.40625" customWidth="true"/>
-    <col min="41" max="41" width="16.40625" customWidth="true"/>
-    <col min="42" max="42" width="16.40625" customWidth="true"/>
-    <col min="43" max="43" width="16.40625" customWidth="true"/>
-    <col min="44" max="44" width="16.40625" customWidth="true"/>
-    <col min="45" max="45" width="16.40625" customWidth="true"/>
-    <col min="46" max="46" width="16.40625" customWidth="true"/>
-    <col min="47" max="47" width="16.40625" customWidth="true"/>
-    <col min="48" max="48" width="16.40625" customWidth="true"/>
-    <col min="49" max="49" width="16.40625" customWidth="true"/>
-    <col min="50" max="50" width="16.40625" customWidth="true"/>
-    <col min="51" max="51" width="16.40625" customWidth="true"/>
-    <col min="52" max="52" width="16.40625" customWidth="true"/>
-    <col min="53" max="53" width="16.40625" customWidth="true"/>
-    <col min="54" max="54" width="16.40625" customWidth="true"/>
-    <col min="55" max="55" width="16.40625" customWidth="true"/>
-    <col min="56" max="56" width="16.40625" customWidth="true"/>
-    <col min="57" max="57" width="16.40625" customWidth="true"/>
-    <col min="58" max="58" width="16.40625" customWidth="true"/>
-    <col min="59" max="59" width="16.40625" customWidth="true"/>
-    <col min="60" max="60" width="16.40625" customWidth="true"/>
-    <col min="61" max="61" width="16.40625" customWidth="true"/>
-    <col min="62" max="62" width="16.40625" customWidth="true"/>
-    <col min="63" max="63" width="16.40625" customWidth="true"/>
-    <col min="64" max="64" width="16.40625" customWidth="true"/>
-    <col min="65" max="65" width="16.40625" customWidth="true"/>
-    <col min="66" max="66" width="16.40625" customWidth="true"/>
-    <col min="67" max="67" width="16.40625" customWidth="true"/>
-    <col min="68" max="68" width="16.40625" customWidth="true"/>
-    <col min="69" max="69" width="16.40625" customWidth="true"/>
-    <col min="70" max="70" width="16.40625" customWidth="true"/>
-    <col min="71" max="71" width="16.40625" customWidth="true"/>
-    <col min="72" max="72" width="16.40625" customWidth="true"/>
-    <col min="73" max="73" width="16.40625" customWidth="true"/>
-    <col min="74" max="74" width="16.40625" customWidth="true"/>
-    <col min="75" max="75" width="16.40625" customWidth="true"/>
-    <col min="76" max="76" width="16.40625" customWidth="true"/>
-    <col min="77" max="77" width="16.40625" customWidth="true"/>
-    <col min="78" max="78" width="16.40625" customWidth="true"/>
-    <col min="79" max="79" width="16.40625" customWidth="true"/>
-    <col min="80" max="80" width="16.40625" customWidth="true"/>
-    <col min="81" max="81" width="16.40625" customWidth="true"/>
-    <col min="82" max="82" width="16.40625" customWidth="true"/>
-    <col min="83" max="83" width="16.40625" customWidth="true"/>
-    <col min="84" max="84" width="16.40625" customWidth="true"/>
-    <col min="85" max="85" width="16.40625" customWidth="true"/>
-    <col min="86" max="86" width="16.40625" customWidth="true"/>
-    <col min="87" max="87" width="16.40625" customWidth="true"/>
-    <col min="88" max="88" width="16.40625" customWidth="true"/>
-    <col min="89" max="89" width="16.40625" customWidth="true"/>
-    <col min="90" max="90" width="16.40625" customWidth="true"/>
-    <col min="91" max="91" width="16.40625" customWidth="true"/>
-    <col min="92" max="92" width="16.40625" customWidth="true"/>
-    <col min="93" max="93" width="16.40625" customWidth="true"/>
-    <col min="94" max="94" width="16.40625" customWidth="true"/>
-    <col min="95" max="95" width="16.40625" customWidth="true"/>
-    <col min="96" max="96" width="16.40625" customWidth="true"/>
-    <col min="97" max="97" width="16.40625" customWidth="true"/>
-    <col min="98" max="98" width="16.40625" customWidth="true"/>
-    <col min="99" max="99" width="16.40625" customWidth="true"/>
-    <col min="100" max="100" width="16.40625" customWidth="true"/>
-    <col min="101" max="101" width="16.40625" customWidth="true"/>
-    <col min="102" max="102" width="16.40625" customWidth="true"/>
-    <col min="103" max="103" width="16.40625" customWidth="true"/>
-    <col min="104" max="104" width="16.40625" customWidth="true"/>
-    <col min="105" max="105" width="16.40625" customWidth="true"/>
-    <col min="106" max="106" width="16.40625" customWidth="true"/>
-    <col min="107" max="107" width="16.40625" customWidth="true"/>
-    <col min="108" max="108" width="16.40625" customWidth="true"/>
-    <col min="109" max="109" width="16.40625" customWidth="true"/>
-    <col min="110" max="110" width="16.40625" customWidth="true"/>
-    <col min="111" max="111" width="16.40625" customWidth="true"/>
-    <col min="112" max="112" width="16.40625" customWidth="true"/>
-    <col min="113" max="113" width="16.40625" customWidth="true"/>
-    <col min="114" max="114" width="16.40625" customWidth="true"/>
-    <col min="115" max="115" width="16.40625" customWidth="true"/>
-    <col min="116" max="116" width="16.40625" customWidth="true"/>
-    <col min="117" max="117" width="16.40625" customWidth="true"/>
-    <col min="118" max="118" width="16.40625" customWidth="true"/>
-    <col min="119" max="119" width="16.40625" customWidth="true"/>
-    <col min="120" max="120" width="16.40625" customWidth="true"/>
-    <col min="121" max="121" width="16.40625" customWidth="true"/>
-    <col min="122" max="122" width="16.40625" customWidth="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="20"/>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" s="1" t="s">

--- a/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
@@ -507,7 +507,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.04.25 16:41</t>
+    <t>2022.06.14 15:12</t>
   </si>
   <si>
     <t>○ Table URL</t>

--- a/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
+++ b/INTLINE/data/542/KOSTAT/Quarterly_previous.xlsx
@@ -507,7 +507,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2022.06.14 15:12</t>
+    <t>2022.06.27 16:27</t>
   </si>
   <si>
     <t>○ Table URL</t>
